--- a/設計書_サーボモーター.xlsx
+++ b/設計書_サーボモーター.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\ikura\テクノオアシス\source\jyosetu\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\source\jyosetu\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E6E3235-AEA4-42A2-A981-119E4FFAE81F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDC5F4F-FBC7-4EAF-9856-008B0E60961C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19995" yWindow="0" windowWidth="8910" windowHeight="17385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -21,23 +21,12 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="36">
   <si>
     <t>キューへ追加</t>
     <rPh sb="4" eb="6">
@@ -279,14 +268,7 @@
     <t>up2</t>
   </si>
   <si>
-    <t>up3</t>
-  </si>
-  <si>
     <t>ToDevice()</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>while</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -337,6 +319,49 @@
     </rPh>
     <rPh sb="9" eb="13">
       <t>セッテイカクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>dw3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>if cmd = up :</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>elif cmd = dw:</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>設定角度-=que.value</t>
+    <rPh sb="0" eb="2">
+      <t>セッテイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>while スレッドの終了までループ</t>
+    <rPh sb="11" eb="13">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>while quesが空になるまでループ</t>
+    <rPh sb="11" eb="12">
+      <t>カラ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スレッドとして実行</t>
+    <rPh sb="7" eb="9">
+      <t>ジッコウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -542,15 +567,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
@@ -573,6 +589,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1017,15 +1042,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B1:AF31"/>
+  <dimension ref="B1:AH31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="AF23" sqref="AF23"/>
+    <sheetView tabSelected="1" topLeftCell="X1" workbookViewId="0">
+      <selection activeCell="AE17" sqref="AE17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.375" defaultRowHeight="18.75"/>
   <sheetData>
-    <row r="1" spans="2:31">
+    <row r="1" spans="2:34">
       <c r="B1" t="s">
         <v>19</v>
       </c>
@@ -1045,24 +1070,27 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="2:31">
+    <row r="2" spans="2:34">
       <c r="F2" s="1"/>
       <c r="G2" s="2"/>
       <c r="H2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="T2" s="1"/>
       <c r="U2" s="2"/>
       <c r="V2" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AB2" s="1"/>
       <c r="AC2" s="2"/>
       <c r="AD2" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="3" spans="2:31">
+        <v>22</v>
+      </c>
+      <c r="AH2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3" spans="2:34">
       <c r="F3" s="1"/>
       <c r="G3" s="2"/>
       <c r="T3" s="1"/>
@@ -1070,13 +1098,13 @@
       <c r="AB3" s="1"/>
       <c r="AC3" s="2"/>
     </row>
-    <row r="4" spans="2:31">
-      <c r="B4" s="3" t="s">
+    <row r="4" spans="2:34">
+      <c r="B4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="C4" s="4"/>
-      <c r="D4" s="5"/>
-      <c r="E4" s="11">
+      <c r="C4" s="16"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="8">
         <v>5</v>
       </c>
       <c r="F4" s="1"/>
@@ -1089,82 +1117,88 @@
       <c r="V4">
         <v>0</v>
       </c>
-      <c r="W4" s="3" t="s">
+      <c r="W4" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="X4" s="4"/>
-      <c r="Y4" s="5"/>
-      <c r="Z4" s="11">
+      <c r="X4" s="16"/>
+      <c r="Y4" s="17"/>
+      <c r="Z4" s="8">
         <v>5</v>
       </c>
       <c r="AB4" s="1"/>
       <c r="AC4" s="2"/>
-    </row>
-    <row r="5" spans="2:31">
-      <c r="B5" s="12"/>
-      <c r="C5" s="12"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-      <c r="G5" s="14"/>
-      <c r="H5" s="12"/>
-      <c r="I5" s="12"/>
-      <c r="J5" s="12"/>
-      <c r="K5" s="12"/>
-      <c r="L5" s="12"/>
-      <c r="M5" s="12"/>
-      <c r="N5" s="12"/>
-      <c r="O5" s="12"/>
-      <c r="P5" s="12"/>
-      <c r="Q5" s="12"/>
-      <c r="R5" s="12"/>
-      <c r="S5" s="12"/>
-      <c r="T5" s="13"/>
-      <c r="U5" s="14"/>
-      <c r="V5" s="12"/>
-      <c r="W5" s="12"/>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="12"/>
-      <c r="Z5" s="12"/>
+      <c r="AE4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="5" spans="2:34">
+      <c r="B5" s="9"/>
+      <c r="C5" s="9"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="11"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="10"/>
+      <c r="U5" s="11"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
       <c r="AB5" s="1"/>
       <c r="AC5" s="2"/>
     </row>
-    <row r="6" spans="2:31">
-      <c r="B6" s="15"/>
-      <c r="C6" s="15"/>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15"/>
-      <c r="F6" s="16"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="15"/>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15"/>
-      <c r="M6" s="15"/>
-      <c r="N6" s="15"/>
-      <c r="O6" s="15"/>
-      <c r="P6" s="15"/>
-      <c r="Q6" s="15"/>
-      <c r="R6" s="15"/>
-      <c r="S6" s="15"/>
-      <c r="T6" s="16"/>
-      <c r="U6" s="17"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="X6" s="15"/>
-      <c r="Y6" s="15"/>
-      <c r="Z6" s="15"/>
+    <row r="6" spans="2:34">
+      <c r="B6" s="12"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="12"/>
+      <c r="I6" s="12"/>
+      <c r="J6" s="12"/>
+      <c r="K6" s="12"/>
+      <c r="L6" s="12"/>
+      <c r="M6" s="12"/>
+      <c r="N6" s="12"/>
+      <c r="O6" s="12"/>
+      <c r="P6" s="12"/>
+      <c r="Q6" s="12"/>
+      <c r="R6" s="12"/>
+      <c r="S6" s="12"/>
+      <c r="T6" s="13"/>
+      <c r="U6" s="14"/>
+      <c r="V6" s="12"/>
+      <c r="W6" s="12"/>
+      <c r="X6" s="12"/>
+      <c r="Y6" s="12"/>
+      <c r="Z6" s="12"/>
       <c r="AB6" s="1"/>
       <c r="AC6" s="2"/>
-    </row>
-    <row r="7" spans="2:31">
-      <c r="B7" s="3" t="s">
+      <c r="AF6" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="7" spans="2:34">
+      <c r="B7" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C7" s="4"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="11">
+      <c r="C7" s="16"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="8">
         <v>5</v>
       </c>
       <c r="F7" s="1"/>
@@ -1177,18 +1211,21 @@
       <c r="V7">
         <v>0</v>
       </c>
-      <c r="W7" s="3" t="s">
+      <c r="W7" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="X7" s="4"/>
-      <c r="Y7" s="5"/>
-      <c r="Z7" s="11">
+      <c r="X7" s="16"/>
+      <c r="Y7" s="17"/>
+      <c r="Z7" s="8">
         <v>5</v>
       </c>
       <c r="AB7" s="1"/>
       <c r="AC7" s="2"/>
-    </row>
-    <row r="8" spans="2:31">
+      <c r="AG7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="2:34">
       <c r="F8" s="1"/>
       <c r="G8" s="2"/>
       <c r="T8" s="1"/>
@@ -1196,82 +1233,85 @@
       <c r="V8">
         <v>1</v>
       </c>
-      <c r="W8" s="3" t="s">
+      <c r="W8" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="X8" s="4"/>
-      <c r="Y8" s="5"/>
-      <c r="Z8" s="11">
+      <c r="X8" s="16"/>
+      <c r="Y8" s="17"/>
+      <c r="Z8" s="8">
         <v>5</v>
       </c>
       <c r="AB8" s="1"/>
       <c r="AC8" s="2"/>
     </row>
-    <row r="9" spans="2:31">
-      <c r="B9" s="12"/>
-      <c r="C9" s="12"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-      <c r="G9" s="14"/>
-      <c r="H9" s="12"/>
-      <c r="I9" s="12"/>
-      <c r="J9" s="12"/>
-      <c r="K9" s="12"/>
-      <c r="L9" s="12"/>
-      <c r="M9" s="12"/>
-      <c r="N9" s="12"/>
-      <c r="O9" s="12"/>
-      <c r="P9" s="12"/>
-      <c r="Q9" s="12"/>
-      <c r="R9" s="12"/>
-      <c r="S9" s="12"/>
-      <c r="T9" s="13"/>
-      <c r="U9" s="14"/>
-      <c r="V9" s="12"/>
-      <c r="W9" s="12"/>
-      <c r="X9" s="12"/>
-      <c r="Y9" s="12"/>
-      <c r="Z9" s="12"/>
+    <row r="9" spans="2:34">
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="10"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="10"/>
+      <c r="U9" s="11"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
       <c r="AB9" s="1"/>
       <c r="AC9" s="2"/>
-    </row>
-    <row r="10" spans="2:31">
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="F10" s="16"/>
-      <c r="G10" s="17"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="16"/>
-      <c r="U10" s="17"/>
-      <c r="V10" s="15"/>
-      <c r="W10" s="15"/>
-      <c r="X10" s="15"/>
-      <c r="Y10" s="15"/>
-      <c r="Z10" s="15"/>
+      <c r="AG9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="2:34">
+      <c r="B10" s="12"/>
+      <c r="C10" s="12"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+      <c r="G10" s="14"/>
+      <c r="H10" s="12"/>
+      <c r="I10" s="12"/>
+      <c r="J10" s="12"/>
+      <c r="K10" s="12"/>
+      <c r="L10" s="12"/>
+      <c r="M10" s="12"/>
+      <c r="N10" s="12"/>
+      <c r="O10" s="12"/>
+      <c r="P10" s="12"/>
+      <c r="Q10" s="12"/>
+      <c r="R10" s="12"/>
+      <c r="S10" s="12"/>
+      <c r="T10" s="13"/>
+      <c r="U10" s="14"/>
+      <c r="V10" s="12"/>
+      <c r="W10" s="12"/>
+      <c r="X10" s="12"/>
+      <c r="Y10" s="12"/>
+      <c r="Z10" s="12"/>
       <c r="AB10" s="1"/>
       <c r="AC10" s="2"/>
     </row>
-    <row r="11" spans="2:31">
-      <c r="B11" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C11" s="4"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="11">
+    <row r="11" spans="2:34">
+      <c r="B11" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C11" s="16"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="8">
         <v>5</v>
       </c>
       <c r="F11" s="1"/>
@@ -1284,18 +1324,21 @@
       <c r="V11">
         <v>0</v>
       </c>
-      <c r="W11" s="3" t="s">
+      <c r="W11" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="X11" s="4"/>
-      <c r="Y11" s="5"/>
-      <c r="Z11" s="11">
+      <c r="X11" s="16"/>
+      <c r="Y11" s="17"/>
+      <c r="Z11" s="8">
         <v>5</v>
       </c>
       <c r="AB11" s="1"/>
       <c r="AC11" s="2"/>
-    </row>
-    <row r="12" spans="2:31">
+      <c r="AG11" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="12" spans="2:34">
       <c r="F12" s="1"/>
       <c r="G12" s="2"/>
       <c r="T12" s="1"/>
@@ -1303,18 +1346,21 @@
       <c r="V12">
         <v>1</v>
       </c>
-      <c r="W12" s="3" t="s">
+      <c r="W12" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="X12" s="4"/>
-      <c r="Y12" s="5"/>
-      <c r="Z12" s="11">
+      <c r="X12" s="16"/>
+      <c r="Y12" s="17"/>
+      <c r="Z12" s="8">
         <v>5</v>
       </c>
       <c r="AB12" s="1"/>
       <c r="AC12" s="2"/>
-    </row>
-    <row r="13" spans="2:31">
+      <c r="AH12" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="2:34">
       <c r="F13" s="1"/>
       <c r="G13" s="2"/>
       <c r="T13" s="1"/>
@@ -1322,120 +1368,120 @@
       <c r="V13">
         <v>2</v>
       </c>
-      <c r="W13" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="X13" s="4"/>
-      <c r="Y13" s="5"/>
-      <c r="Z13" s="11">
-        <v>5</v>
+      <c r="W13" s="15" t="s">
+        <v>29</v>
+      </c>
+      <c r="X13" s="16"/>
+      <c r="Y13" s="17"/>
+      <c r="Z13" s="8">
+        <v>1</v>
       </c>
       <c r="AB13" s="1"/>
       <c r="AC13" s="2"/>
-    </row>
-    <row r="14" spans="2:31">
-      <c r="B14" s="12"/>
-      <c r="C14" s="12"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-      <c r="G14" s="14"/>
-      <c r="H14" s="12"/>
-      <c r="I14" s="12"/>
-      <c r="J14" s="12"/>
-      <c r="K14" s="12"/>
-      <c r="L14" s="12"/>
-      <c r="M14" s="12"/>
-      <c r="N14" s="12"/>
-      <c r="O14" s="12"/>
-      <c r="P14" s="12"/>
-      <c r="Q14" s="12"/>
-      <c r="R14" s="12"/>
-      <c r="S14" s="12"/>
-      <c r="T14" s="13"/>
-      <c r="U14" s="14"/>
-      <c r="V14" s="12"/>
-      <c r="W14" s="12"/>
-      <c r="X14" s="12"/>
-      <c r="Y14" s="12"/>
-      <c r="Z14" s="12"/>
+      <c r="AH13" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="2:34">
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="10"/>
+      <c r="G14" s="11"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="10"/>
+      <c r="U14" s="11"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
       <c r="AB14" s="1"/>
       <c r="AC14" s="2"/>
-    </row>
-    <row r="15" spans="2:31">
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
-      <c r="E15" s="15"/>
-      <c r="F15" s="16"/>
-      <c r="G15" s="17"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15"/>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15"/>
-      <c r="M15" s="15"/>
-      <c r="N15" s="15"/>
-      <c r="O15" s="15"/>
-      <c r="P15" s="15"/>
-      <c r="Q15" s="15"/>
-      <c r="R15" s="15"/>
-      <c r="S15" s="15"/>
-      <c r="T15" s="16"/>
-      <c r="U15" s="17"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-      <c r="X15" s="15"/>
-      <c r="Y15" s="15"/>
-      <c r="Z15" s="15"/>
+      <c r="AG14" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="2:34">
+      <c r="B15" s="12"/>
+      <c r="C15" s="12"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+      <c r="G15" s="14"/>
+      <c r="H15" s="12"/>
+      <c r="I15" s="12"/>
+      <c r="J15" s="12"/>
+      <c r="K15" s="12"/>
+      <c r="L15" s="12"/>
+      <c r="M15" s="12"/>
+      <c r="N15" s="12"/>
+      <c r="O15" s="12"/>
+      <c r="P15" s="12"/>
+      <c r="Q15" s="12"/>
+      <c r="R15" s="12"/>
+      <c r="S15" s="12"/>
+      <c r="T15" s="13"/>
+      <c r="U15" s="14"/>
+      <c r="V15" s="12"/>
+      <c r="W15" s="12"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="12"/>
       <c r="AB15" s="1"/>
       <c r="AC15" s="2"/>
-    </row>
-    <row r="16" spans="2:31">
+      <c r="AH15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="2:34">
       <c r="F16" s="1"/>
       <c r="G16" s="2"/>
       <c r="T16" s="1"/>
       <c r="U16" s="2"/>
       <c r="AB16" s="1"/>
       <c r="AC16" s="2"/>
-      <c r="AE16" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="17" spans="6:32">
+      <c r="AH16" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="6:29">
       <c r="F17" s="1"/>
       <c r="G17" s="2"/>
       <c r="T17" s="1"/>
       <c r="U17" s="2"/>
       <c r="AB17" s="1"/>
       <c r="AC17" s="2"/>
-      <c r="AF17" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="18" spans="6:32">
+    </row>
+    <row r="18" spans="6:29">
       <c r="F18" s="1"/>
       <c r="G18" s="2"/>
       <c r="T18" s="1"/>
       <c r="U18" s="2"/>
       <c r="AB18" s="1"/>
       <c r="AC18" s="2"/>
-      <c r="AF18" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="19" spans="6:32">
+    </row>
+    <row r="19" spans="6:29">
       <c r="F19" s="1"/>
       <c r="G19" s="2"/>
       <c r="T19" s="1"/>
       <c r="U19" s="2"/>
       <c r="AB19" s="1"/>
       <c r="AC19" s="2"/>
-      <c r="AF19" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="20" spans="6:32">
+    </row>
+    <row r="20" spans="6:29">
       <c r="F20" s="1"/>
       <c r="G20" s="2"/>
       <c r="T20" s="1"/>
@@ -1443,18 +1489,15 @@
       <c r="AB20" s="1"/>
       <c r="AC20" s="2"/>
     </row>
-    <row r="21" spans="6:32">
+    <row r="21" spans="6:29">
       <c r="F21" s="1"/>
       <c r="G21" s="2"/>
       <c r="T21" s="1"/>
       <c r="U21" s="2"/>
       <c r="AB21" s="1"/>
       <c r="AC21" s="2"/>
-      <c r="AF21" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="6:32">
+    </row>
+    <row r="22" spans="6:29">
       <c r="F22" s="1"/>
       <c r="G22" s="2"/>
       <c r="T22" s="1"/>
@@ -1462,7 +1505,7 @@
       <c r="AB22" s="1"/>
       <c r="AC22" s="2"/>
     </row>
-    <row r="23" spans="6:32">
+    <row r="23" spans="6:29">
       <c r="F23" s="1"/>
       <c r="G23" s="2"/>
       <c r="T23" s="1"/>
@@ -1470,7 +1513,7 @@
       <c r="AB23" s="1"/>
       <c r="AC23" s="2"/>
     </row>
-    <row r="24" spans="6:32">
+    <row r="24" spans="6:29">
       <c r="F24" s="1"/>
       <c r="G24" s="2"/>
       <c r="T24" s="1"/>
@@ -1478,7 +1521,7 @@
       <c r="AB24" s="1"/>
       <c r="AC24" s="2"/>
     </row>
-    <row r="25" spans="6:32">
+    <row r="25" spans="6:29">
       <c r="F25" s="1"/>
       <c r="G25" s="2"/>
       <c r="T25" s="1"/>
@@ -1486,7 +1529,7 @@
       <c r="AB25" s="1"/>
       <c r="AC25" s="2"/>
     </row>
-    <row r="26" spans="6:32">
+    <row r="26" spans="6:29">
       <c r="F26" s="1"/>
       <c r="G26" s="2"/>
       <c r="T26" s="1"/>
@@ -1494,7 +1537,7 @@
       <c r="AB26" s="1"/>
       <c r="AC26" s="2"/>
     </row>
-    <row r="27" spans="6:32">
+    <row r="27" spans="6:29">
       <c r="F27" s="1"/>
       <c r="G27" s="2"/>
       <c r="T27" s="1"/>
@@ -1502,7 +1545,7 @@
       <c r="AB27" s="1"/>
       <c r="AC27" s="2"/>
     </row>
-    <row r="28" spans="6:32">
+    <row r="28" spans="6:29">
       <c r="F28" s="1"/>
       <c r="G28" s="2"/>
       <c r="T28" s="1"/>
@@ -1510,7 +1553,7 @@
       <c r="AB28" s="1"/>
       <c r="AC28" s="2"/>
     </row>
-    <row r="29" spans="6:32">
+    <row r="29" spans="6:29">
       <c r="F29" s="1"/>
       <c r="G29" s="2"/>
       <c r="T29" s="1"/>
@@ -1518,7 +1561,7 @@
       <c r="AB29" s="1"/>
       <c r="AC29" s="2"/>
     </row>
-    <row r="30" spans="6:32">
+    <row r="30" spans="6:29">
       <c r="F30" s="1"/>
       <c r="G30" s="2"/>
       <c r="T30" s="1"/>
@@ -1526,7 +1569,7 @@
       <c r="AB30" s="1"/>
       <c r="AC30" s="2"/>
     </row>
-    <row r="31" spans="6:32">
+    <row r="31" spans="6:29">
       <c r="F31" s="1"/>
       <c r="G31" s="2"/>
       <c r="T31" s="1"/>
@@ -1561,25 +1604,25 @@
   <sheetFormatPr defaultRowHeight="18.75"/>
   <sheetData>
     <row r="1" spans="1:1" ht="20.25">
-      <c r="A1" s="6" t="s">
+      <c r="A1" s="3" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:1">
-      <c r="A2" s="7"/>
+      <c r="A2" s="4"/>
     </row>
     <row r="3" spans="1:1">
-      <c r="A3" s="8" t="s">
+      <c r="A3" s="5" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:1">
-      <c r="A4" s="8" t="s">
+      <c r="A4" s="5" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" s="8" t="s">
+      <c r="A5" s="5" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1589,61 +1632,61 @@
       </c>
     </row>
     <row r="9" spans="1:1">
-      <c r="A9" s="10" t="s">
+      <c r="A9" s="7" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:1">
-      <c r="A10" s="9"/>
+      <c r="A10" s="6"/>
     </row>
     <row r="11" spans="1:1">
-      <c r="A11" s="10" t="s">
+      <c r="A11" s="7" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="12" spans="1:1">
-      <c r="A12" s="10" t="s">
+      <c r="A12" s="7" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="13" spans="1:1">
-      <c r="A13" s="9"/>
+      <c r="A13" s="6"/>
     </row>
     <row r="14" spans="1:1">
-      <c r="A14" s="10" t="s">
+      <c r="A14" s="7" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="15" spans="1:1">
-      <c r="A15" s="10" t="s">
+      <c r="A15" s="7" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="16" spans="1:1">
-      <c r="A16" s="10" t="s">
+      <c r="A16" s="7" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="17" spans="1:1">
-      <c r="A17" s="9"/>
+      <c r="A17" s="6"/>
     </row>
     <row r="18" spans="1:1">
-      <c r="A18" s="10" t="s">
+      <c r="A18" s="7" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="19" spans="1:1">
-      <c r="A19" s="10" t="s">
+      <c r="A19" s="7" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="20" spans="1:1">
-      <c r="A20" s="10" t="s">
+      <c r="A20" s="7" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="20.25">
-      <c r="A22" s="6" t="s">
+      <c r="A22" s="3" t="s">
         <v>16</v>
       </c>
     </row>
